--- a/beam_data_02.xlsx
+++ b/beam_data_02.xlsx
@@ -609,10 +609,10 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="G2" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
         <v>1.5</v>
